--- a/PizzaShop/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/PizzaShop/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultate\Anul 3\VVSS\VVSS-Project\PizzaShop\Docs\Lab01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7445F94-60E0-4C79-A185-975CD1605B45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="14160" windowHeight="8265" tabRatio="650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -12,12 +18,20 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="DynamicCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -55,12 +69,6 @@
     <t>Popescu Ionel</t>
   </si>
   <si>
-    <t>Georgescu Anca</t>
-  </si>
-  <si>
-    <t>Firicescu George</t>
-  </si>
-  <si>
     <t>Requirements Document</t>
   </si>
   <si>
@@ -125,12 +133,15 @@
   </si>
   <si>
     <t>Scoican Ovidiu</t>
+  </si>
+  <si>
+    <t>LalaTeam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,6 +395,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -431,7 +445,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -464,9 +478,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,6 +530,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -674,14 +722,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,89 +744,97 @@
     <col min="11" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
     </row>
-    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="18"/>
+        <v>31</v>
+      </c>
+      <c r="J3" s="18">
+        <v>236</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="24"/>
       <c r="H4" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="J4" s="3">
+        <v>236</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E5" s="26"/>
       <c r="H5" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+        <v>33</v>
+      </c>
+      <c r="J5" s="3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
     </row>
-    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -792,7 +848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -800,7 +856,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -809,7 +865,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
@@ -818,7 +874,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -827,7 +883,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -836,7 +892,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -845,7 +901,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -854,7 +910,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -863,7 +919,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -872,7 +928,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="2:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -881,7 +937,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="2:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -890,7 +946,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="2:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -899,7 +955,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="2:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -908,7 +964,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="2:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -917,7 +973,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="2:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -926,7 +982,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="2:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -935,10 +991,10 @@
       <c r="D25" s="3"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="2:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="2:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C27" s="12" t="s">
         <v>8</v>
       </c>
@@ -960,14 +1016,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,83 +1037,85 @@
     <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
     </row>
-    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" s="27"/>
       <c r="H4" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E5" s="29"/>
       <c r="H5" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
     </row>
-    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1071,7 +1129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1079,7 +1137,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1088,7 +1146,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
@@ -1097,7 +1155,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1106,7 +1164,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1115,7 +1173,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1124,7 +1182,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1133,7 +1191,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1142,7 +1200,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1151,7 +1209,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1160,7 +1218,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1169,7 +1227,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1178,7 +1236,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1187,7 +1245,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1196,7 +1254,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1205,7 +1263,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1214,7 +1272,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1223,10 +1281,10 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="2:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C28" s="12" t="s">
         <v>8</v>
       </c>
@@ -1248,7 +1306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
@@ -1270,54 +1328,54 @@
     <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
     </row>
-    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="30"/>
       <c r="H4" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
@@ -1326,12 +1384,12 @@
       </c>
       <c r="E5" s="32"/>
       <c r="H5" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -1339,14 +1397,14 @@
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
     </row>
-    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1360,7 +1418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1368,7 +1426,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1377,7 +1435,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
@@ -1386,7 +1444,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1395,7 +1453,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1404,7 +1462,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1413,7 +1471,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1422,7 +1480,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1431,7 +1489,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1440,7 +1498,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1449,7 +1507,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1458,7 +1516,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1467,7 +1525,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1476,7 +1534,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1485,7 +1543,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1494,7 +1552,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1503,7 +1561,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1573,7 +1631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
@@ -1596,64 +1654,64 @@
     <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
     </row>
-    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
       <c r="H4" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
       <c r="H5" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
@@ -1661,24 +1719,24 @@
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
     </row>
-    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1687,7 +1745,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1697,7 +1755,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
@@ -1707,7 +1765,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1717,7 +1775,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1727,7 +1785,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1737,7 +1795,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1747,7 +1805,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1757,7 +1815,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1767,7 +1825,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1777,7 +1835,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1787,7 +1845,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1797,7 +1855,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1807,7 +1865,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1817,7 +1875,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1827,7 +1885,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1837,7 +1895,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1847,7 +1905,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1857,7 +1915,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1867,7 +1925,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1877,7 +1935,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1887,12 +1945,12 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="2:6" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C32" s="33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D32" s="34"/>
       <c r="E32" s="34"/>
